--- a/data-business-operation/src/test/java/com/centit/support/test/TestCrossTabulation.xlsx
+++ b/data-business-operation/src/test/java/com/centit/support/test/TestCrossTabulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initData" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -57,95 +57,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>season:1:month:1:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:1:month:1:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:1:month:3:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:1:month:3:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:1:month:2:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:1:month:2:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:2:month:6:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:2:month:6:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:3:month:7:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:3:month:7:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:3:month:9:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:3:month:9:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:4:month:11:crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season:4:month:11:fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowHeaderFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colHeaderFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:1:month:1:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:1:month:1:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:1:month:3:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:1:month:3:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:1:month:2:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:1:month:2:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:2:month:6:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:2:month:6:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:3:month:7:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:3:month:7:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:3:month:9:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:3:month:9:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:4:month:11:crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season:4:month:11:fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowHeaderFields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colHeaderFields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,6 +181,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,11 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,18 +532,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
@@ -546,161 +578,161 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4">
         <v>13</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4">
         <v>30</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
         <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>2019</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4">
         <v>32</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
         <v>36</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>87</v>
       </c>
     </row>
@@ -716,7 +748,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,7 +760,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -739,7 +771,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -759,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -791,54 +823,54 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -866,11 +898,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E3">
         <v>30</v>
